--- a/Tests/EuSorption/dbimport/Eu_on_illite_air.xlsx
+++ b/Tests/EuSorption/dbimport/Eu_on_illite_air.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeDan\OneDrive\GEMSFITS-Tutorial\Exp-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miron\git\bucket\gemsfits\GEMSFITSDEPLOY\Gemsfits1.2.1\Tests\EuSorption\dbimport\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14918E3-DBB2-40B8-AF27-E09A2C1D55E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="139"/>
+    <workbookView xWindow="1670" yWindow="860" windowWidth="12930" windowHeight="7170" tabRatio="139" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOL" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="71">
   <si>
     <t>id</t>
   </si>
@@ -278,11 +279,14 @@
   <si>
     <t>(ml/g)</t>
   </si>
+  <si>
+    <t>STOP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
     <numFmt numFmtId="165" formatCode="0.00E+000"/>
@@ -481,7 +485,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="TableStyleLight1" xfId="1"/>
+    <cellStyle name="TableStyleLight1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -565,7 +569,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
@@ -843,6 +847,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C9E5-48F7-8A6F-0F37E1882B73}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1098,6 +1107,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C9E5-48F7-8A6F-0F37E1882B73}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1224,7 +1238,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1504,59 +1524,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
   <dimension ref="A1:AMH495"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1"/>
-    <col min="3" max="3" width="11.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="1"/>
-    <col min="5" max="5" width="8.5703125" style="1"/>
+    <col min="2" max="2" width="12.26953125" style="1"/>
+    <col min="3" max="3" width="11.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.26953125" style="1"/>
+    <col min="5" max="5" width="8.54296875" style="1"/>
     <col min="6" max="6" width="14" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1"/>
-    <col min="10" max="10" width="11.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1"/>
+    <col min="7" max="7" width="14.81640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.26953125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" style="1"/>
+    <col min="10" max="10" width="11.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1796875" style="1"/>
     <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.54296875" style="1" customWidth="1"/>
     <col min="14" max="14" width="7" style="1"/>
-    <col min="15" max="15" width="14.28515625" style="1"/>
-    <col min="16" max="16" width="6.85546875" style="1"/>
+    <col min="15" max="15" width="14.26953125" style="1"/>
+    <col min="16" max="16" width="6.81640625" style="1"/>
     <col min="17" max="17" width="14" style="1" customWidth="1"/>
     <col min="18" max="18" width="8" style="1"/>
     <col min="19" max="19" width="15" style="1"/>
-    <col min="20" max="20" width="6.28515625" style="1"/>
-    <col min="21" max="21" width="13.140625" style="1"/>
+    <col min="20" max="20" width="6.26953125" style="1"/>
+    <col min="21" max="21" width="13.1796875" style="1"/>
     <col min="22" max="22" width="7" style="1"/>
-    <col min="23" max="23" width="11.42578125" style="1"/>
-    <col min="24" max="24" width="6.5703125" style="1"/>
-    <col min="25" max="25" width="11.42578125" style="1"/>
-    <col min="26" max="26" width="6.7109375" style="1"/>
-    <col min="27" max="27" width="11.42578125" style="1"/>
-    <col min="28" max="28" width="5.7109375" style="1"/>
-    <col min="29" max="29" width="11.42578125" style="1"/>
-    <col min="30" max="30" width="5.5703125" style="1"/>
-    <col min="31" max="31" width="11.42578125" style="1"/>
+    <col min="23" max="23" width="11.453125" style="1"/>
+    <col min="24" max="24" width="6.54296875" style="1"/>
+    <col min="25" max="25" width="11.453125" style="1"/>
+    <col min="26" max="26" width="6.7265625" style="1"/>
+    <col min="27" max="27" width="11.453125" style="1"/>
+    <col min="28" max="28" width="5.7265625" style="1"/>
+    <col min="29" max="29" width="11.453125" style="1"/>
+    <col min="30" max="30" width="5.54296875" style="1"/>
+    <col min="31" max="31" width="11.453125" style="1"/>
     <col min="32" max="32" width="6" style="1"/>
-    <col min="33" max="33" width="16.5703125" style="1"/>
-    <col min="34" max="34" width="16.28515625" style="1"/>
+    <col min="33" max="33" width="16.54296875" style="1"/>
+    <col min="34" max="34" width="16.26953125" style="1"/>
     <col min="35" max="36" width="7" style="1"/>
-    <col min="37" max="37" width="19.140625" style="1"/>
-    <col min="38" max="272" width="12.28515625" style="1"/>
-    <col min="273" max="1023" width="8.7109375"/>
+    <col min="37" max="37" width="19.1796875" style="1"/>
+    <col min="38" max="272" width="12.26953125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1022" s="2" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1022" s="2" customFormat="1" ht="28.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1668,7 +1687,7 @@
       <c r="AMG1"/>
       <c r="AMH1"/>
     </row>
-    <row r="2" spans="1:1022" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1022" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1779,7 +1798,7 @@
       </c>
       <c r="AK2"/>
     </row>
-    <row r="3" spans="1:1022" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1022" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1890,7 +1909,7 @@
       </c>
       <c r="AK3"/>
     </row>
-    <row r="4" spans="1:1022" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1022" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2001,7 +2020,7 @@
       </c>
       <c r="AK4"/>
     </row>
-    <row r="5" spans="1:1022" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1022" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2112,7 +2131,7 @@
       </c>
       <c r="AK5"/>
     </row>
-    <row r="6" spans="1:1022" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1022" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2223,7 +2242,7 @@
       </c>
       <c r="AK6"/>
     </row>
-    <row r="7" spans="1:1022" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1022" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2334,7 +2353,7 @@
       </c>
       <c r="AK7"/>
     </row>
-    <row r="8" spans="1:1022" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1022" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2445,7 +2464,7 @@
       </c>
       <c r="AK8"/>
     </row>
-    <row r="9" spans="1:1022" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1022" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2556,7 +2575,7 @@
       </c>
       <c r="AK9"/>
     </row>
-    <row r="10" spans="1:1022" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1022" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2667,7 +2686,7 @@
       </c>
       <c r="AK10"/>
     </row>
-    <row r="11" spans="1:1022" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1022" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2778,7 +2797,7 @@
       </c>
       <c r="AK11"/>
     </row>
-    <row r="12" spans="1:1022" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1022" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2889,7 +2908,7 @@
       </c>
       <c r="AK12"/>
     </row>
-    <row r="13" spans="1:1022" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1022" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3000,7 +3019,7 @@
       </c>
       <c r="AK13"/>
     </row>
-    <row r="14" spans="1:1022" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1022" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3111,7 +3130,7 @@
       </c>
       <c r="AK14"/>
     </row>
-    <row r="15" spans="1:1022" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1022" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3222,7 +3241,7 @@
       </c>
       <c r="AK15"/>
     </row>
-    <row r="16" spans="1:1022" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1022" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3333,7 +3352,7 @@
       </c>
       <c r="AK16"/>
     </row>
-    <row r="17" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3444,7 +3463,7 @@
       </c>
       <c r="AK17"/>
     </row>
-    <row r="18" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3555,7 +3574,7 @@
       </c>
       <c r="AK18"/>
     </row>
-    <row r="19" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3666,7 +3685,7 @@
       </c>
       <c r="AK19"/>
     </row>
-    <row r="20" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3777,7 +3796,7 @@
       </c>
       <c r="AK20"/>
     </row>
-    <row r="21" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3888,7 +3907,7 @@
       </c>
       <c r="AK21"/>
     </row>
-    <row r="22" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3999,7 +4018,7 @@
       </c>
       <c r="AK22"/>
     </row>
-    <row r="23" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4110,7 +4129,7 @@
       </c>
       <c r="AK23"/>
     </row>
-    <row r="24" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4221,7 +4240,7 @@
       </c>
       <c r="AK24"/>
     </row>
-    <row r="25" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4332,7 +4351,7 @@
       </c>
       <c r="AK25"/>
     </row>
-    <row r="26" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4443,7 +4462,7 @@
       </c>
       <c r="AK26"/>
     </row>
-    <row r="27" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4554,7 +4573,7 @@
       </c>
       <c r="AK27"/>
     </row>
-    <row r="28" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4665,7 +4684,7 @@
       </c>
       <c r="AK28"/>
     </row>
-    <row r="29" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4776,7 +4795,7 @@
       </c>
       <c r="AK29"/>
     </row>
-    <row r="30" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4887,7 +4906,7 @@
       </c>
       <c r="AK30"/>
     </row>
-    <row r="31" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4998,7 +5017,7 @@
       </c>
       <c r="AK31"/>
     </row>
-    <row r="32" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5109,7 +5128,7 @@
       </c>
       <c r="AK32"/>
     </row>
-    <row r="33" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5220,7 +5239,7 @@
       </c>
       <c r="AK33"/>
     </row>
-    <row r="34" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5331,7 +5350,7 @@
       </c>
       <c r="AK34"/>
     </row>
-    <row r="35" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5442,7 +5461,7 @@
       </c>
       <c r="AK35"/>
     </row>
-    <row r="36" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5553,7 +5572,7 @@
       </c>
       <c r="AK36"/>
     </row>
-    <row r="37" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5664,271 +5683,276 @@
       </c>
       <c r="AK37"/>
     </row>
-    <row r="231" ht="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="231" ht="14.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5940,22 +5964,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.42578125"/>
-    <col min="2" max="3" width="11.5703125" style="9"/>
-    <col min="4" max="5" width="11.5703125" style="10"/>
-    <col min="6" max="1025" width="10.85546875"/>
+    <col min="1" max="1" width="19.453125"/>
+    <col min="2" max="3" width="11.54296875" style="9"/>
+    <col min="4" max="5" width="11.54296875" style="10"/>
+    <col min="6" max="1025" width="10.81640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="11" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
         <v>64</v>
       </c>
@@ -5964,7 +5988,7 @@
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="1:5" s="19" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="19" customFormat="1" ht="20.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="15" t="s">
         <v>65</v>
       </c>
@@ -5973,7 +5997,7 @@
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
     </row>
-    <row r="3" spans="1:5" ht="21.75" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="22" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="20" t="s">
         <v>66</v>
       </c>
@@ -5982,13 +6006,13 @@
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
     </row>
-    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="21" t="s">
         <v>67</v>
       </c>
@@ -6002,7 +6026,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="21"/>
       <c r="C6" s="22" t="s">
         <v>69</v>
@@ -6012,7 +6036,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" s="25">
         <v>2.54</v>
       </c>
@@ -6026,7 +6050,7 @@
         <v>3.3278591060743201</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="25">
         <v>2.5499999999999998</v>
       </c>
@@ -6040,7 +6064,7 @@
         <v>3.5492542280260899</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="25">
         <v>2.5499999999999998</v>
       </c>
@@ -6054,7 +6078,7 @@
         <v>3.8314696173532998</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="25">
         <v>3.86</v>
       </c>
@@ -6068,7 +6092,7 @@
         <v>4.0432339535413302</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" s="25">
         <v>3.87</v>
       </c>
@@ -6082,7 +6106,7 @@
         <v>4.4798146572050603</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" s="25">
         <v>3.85</v>
       </c>
@@ -6096,7 +6120,7 @@
         <v>4.97045678805494</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" s="25">
         <v>4.57</v>
       </c>
@@ -6110,7 +6134,7 @@
         <v>5.2566721042950997</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" s="25">
         <v>4.58</v>
       </c>
@@ -6124,7 +6148,7 @@
         <v>5.4644130069207</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B15" s="25">
         <v>4.6100000000000003</v>
       </c>
@@ -6138,7 +6162,7 @@
         <v>5.3198411413054796</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" s="25">
         <v>5.5</v>
       </c>
@@ -6152,7 +6176,7 @@
         <v>4.4664197072638103</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="25">
         <v>5.48</v>
       </c>
@@ -6166,7 +6190,7 @@
         <v>3.5445209138374301</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="25">
         <v>5.48</v>
       </c>
@@ -6180,7 +6204,7 @@
         <v>2.2259738381402698</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="25">
         <v>5.91</v>
       </c>
@@ -6194,7 +6218,7 @@
         <v>3.3159078969593998</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="25">
         <v>5.92</v>
       </c>
@@ -6208,7 +6232,7 @@
         <v>3.5649232924940502</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="25">
         <v>5.93</v>
       </c>
@@ -6222,7 +6246,7 @@
         <v>3.8339030910813601</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="25">
         <v>6.48</v>
       </c>
@@ -6236,7 +6260,7 @@
         <v>4.0360534447880703</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="25">
         <v>6.46</v>
       </c>
@@ -6250,7 +6274,7 @@
         <v>4.4761951622904803</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="25">
         <v>6.45</v>
       </c>
@@ -6264,7 +6288,7 @@
         <v>4.9900888870914999</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="25">
         <v>6.93</v>
       </c>
@@ -6278,7 +6302,7 @@
         <v>5.2316127967580899</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="25">
         <v>6.92</v>
       </c>
@@ -6292,7 +6316,7 @@
         <v>5.3640603439114001</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="25">
         <v>6.92</v>
       </c>
@@ -6306,7 +6330,7 @@
         <v>5.3158323945131203</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="25">
         <v>7.4</v>
       </c>
@@ -6320,7 +6344,7 @@
         <v>4.4797331005251104</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="25">
         <v>7.39</v>
       </c>
@@ -6334,7 +6358,7 @@
         <v>3.5477596215579399</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="25">
         <v>7.36</v>
       </c>
@@ -6348,7 +6372,7 @@
         <v>2.2382928047602899</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="25">
         <v>7.84</v>
       </c>
@@ -6362,7 +6386,7 @@
         <v>3.3203721095653398</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="25">
         <v>7.82</v>
       </c>
@@ -6376,7 +6400,7 @@
         <v>3.5386084948610801</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" s="25">
         <v>7.84</v>
       </c>
@@ -6390,7 +6414,7 @@
         <v>3.8151971032606098</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" s="25">
         <v>8.32</v>
       </c>
@@ -6404,7 +6428,7 @@
         <v>4.0442495093656099</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" s="25">
         <v>8.32</v>
       </c>
@@ -6418,7 +6442,7 @@
         <v>4.4614454226635196</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="25">
         <v>8.33</v>
       </c>
@@ -6432,7 +6456,7 @@
         <v>4.9773678364172502</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="25">
         <v>8.84</v>
       </c>
@@ -6446,7 +6470,7 @@
         <v>5.1906722065273598</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" s="25">
         <v>8.85</v>
       </c>
@@ -6460,7 +6484,7 @@
         <v>5.4706970205926302</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" s="25">
         <v>9.32</v>
       </c>
@@ -6474,7 +6498,7 @@
         <v>5.2797688039989596</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40" s="25">
         <v>9.34</v>
       </c>
@@ -6488,7 +6512,7 @@
         <v>4.4714480048803198</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41" s="25">
         <v>9.34</v>
       </c>
@@ -6502,7 +6526,7 @@
         <v>3.5485480572389201</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B42" s="25">
         <v>10.76</v>
       </c>
@@ -6516,7 +6540,7 @@
         <v>2.2400609877178801</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B43" s="25">
         <v>10.78</v>
       </c>
@@ -6524,7 +6548,7 @@
         <v>5.4876232597531898</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B44" s="25">
         <v>10.78</v>
       </c>
